--- a/Data/bike-share-daily.xlsx
+++ b/Data/bike-share-daily.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="24960" windowHeight="14820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="26640" yWindow="680" windowWidth="21600" windowHeight="14820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P732"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37105,7 +37105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
